--- a/regionseng/11/business sector/by size.xlsx
+++ b/regionseng/11/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF635DB-F8D0-4B1C-80A1-CEDCC2FB8450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -252,6 +253,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -287,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -477,15 +512,15 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -494,14 +529,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -548,8 +583,14 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,8 +639,14 @@
       <c r="P6" s="9">
         <v>1389.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="9">
+        <v>2031.6</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2605.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -648,8 +695,14 @@
       <c r="P7" s="10">
         <v>800.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="10">
+        <v>1191.7</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1559.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -698,8 +751,14 @@
       <c r="P8" s="10">
         <v>223.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="10">
+        <v>366</v>
+      </c>
+      <c r="R8" s="10">
+        <v>434.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -748,13 +807,20 @@
       <c r="P9" s="10">
         <v>365.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q9" s="10">
+        <v>473.9</v>
+      </c>
+      <c r="R9" s="10">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,13 +831,15 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -818,8 +886,14 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -868,8 +942,14 @@
       <c r="P14" s="9">
         <v>1225</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9">
+        <v>1525</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1968.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -918,8 +998,14 @@
       <c r="P15" s="10">
         <v>761</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="10">
+        <v>954.1</v>
+      </c>
+      <c r="R15" s="10">
+        <v>1242.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,8 +1054,14 @@
       <c r="P16" s="10">
         <v>227.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="Q16" s="10">
+        <v>277.7</v>
+      </c>
+      <c r="R16" s="10">
+        <v>336.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1018,13 +1110,20 @@
       <c r="P17" s="10">
         <v>236.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:47" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q17" s="10">
+        <v>293.10000000000002</v>
+      </c>
+      <c r="R17" s="10">
+        <v>389.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:47" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,13 +1134,15 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:47" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1088,8 +1189,14 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1138,39 +1245,15 @@
       <c r="P22" s="11">
         <v>10806.9</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="Q22" s="11">
+        <v>12318</v>
+      </c>
+      <c r="R22" s="11">
+        <v>13292</v>
+      </c>
       <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1219,39 +1302,15 @@
       <c r="P23" s="12">
         <v>3364</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="Q23" s="12">
+        <v>3385</v>
+      </c>
+      <c r="R23" s="12">
+        <v>3567</v>
+      </c>
       <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1300,39 +1359,15 @@
       <c r="P24" s="12">
         <v>2222</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="12">
+        <v>1842</v>
+      </c>
+      <c r="R24" s="12">
+        <v>2518</v>
+      </c>
       <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
-      <c r="AU24" s="7"/>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1381,44 +1416,21 @@
       <c r="P25" s="12">
         <v>5220.8999999999996</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="Q25" s="12">
+        <v>7091</v>
+      </c>
+      <c r="R25" s="12">
+        <v>7207</v>
+      </c>
       <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-    </row>
-    <row r="26" spans="1:47" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:47" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1429,13 +1441,15 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:47" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1482,8 +1496,14 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1532,18 +1552,15 @@
       <c r="P30" s="9">
         <v>1275.4000000000001</v>
       </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="Q30" s="9">
+        <v>1296</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1562.5</v>
+      </c>
       <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -1592,18 +1609,15 @@
       <c r="P31" s="10">
         <v>2037.1</v>
       </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="Q31" s="10">
+        <v>2157.9</v>
+      </c>
+      <c r="R31" s="10">
+        <v>2560</v>
+      </c>
       <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,18 +1666,15 @@
       <c r="P32" s="10">
         <v>1260.9000000000001</v>
       </c>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="Q32" s="10">
+        <v>1667.6</v>
+      </c>
+      <c r="R32" s="10">
+        <v>1561.5</v>
+      </c>
       <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1712,16 +1723,13 @@
       <c r="P33" s="10">
         <v>655</v>
       </c>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="Q33" s="10">
+        <v>631.1</v>
+      </c>
+      <c r="R33" s="10">
+        <v>936.5</v>
+      </c>
       <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
